--- a/va_facility_data_2025-02-20/Marietta VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Marietta%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Marietta VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Marietta%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc818c4855b794de682a5b31ed3034685"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb1d01c2296904832b85860d2326a96ce"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra76bd0c87a6f443ca822d1ccda8a8600"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R22831c44b45947e39b058e7abec87f2f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R672e7b1fddfb46d2929c44e34f84742b"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R14797f4053904728ad821ed93e075716"/>
   </x:sheets>
 </x:workbook>
 </file>
